--- a/data/trans_camb/IMC_inf_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IMC_inf_R2-Edad-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con al menos sobrepeso</t>
+          <t>Población con sobrepeso u obesidad declarado</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,1</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-17,09</t>
+          <t>-16,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,57</t>
+          <t>-13,38</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,8</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-12,92</t>
+          <t>-14,89</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,29; -1,84</t>
+          <t>-24,47; 16,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 6,85</t>
+          <t>-19,29; 19,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,74; -5,34</t>
+          <t>-35,11; 6,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 9,51</t>
+          <t>-20,28; 19,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 9,45</t>
+          <t>-22,08; 15,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 3,34</t>
+          <t>-33,12; 8,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 0,65</t>
+          <t>-15,87; 12,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 5,54</t>
+          <t>-16,49; 11,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-21,05; -4,93</t>
+          <t>-29,49; -0,5</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-27,63%</t>
+          <t>-7,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,87%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-42,53%</t>
+          <t>-33,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,04%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,7%</t>
+          <t>-8,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,29%</t>
+          <t>-26,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-14,72%</t>
+          <t>-3,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,97%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-32,81%</t>
+          <t>-29,75%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,99; -4,59</t>
+          <t>-41,52; 38,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,24; 19,5</t>
+          <t>-34,01; 50,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-62,26; -14,51</t>
+          <t>-63,0; 15,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 29,73</t>
+          <t>-33,61; 51,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 29,8</t>
+          <t>-38,02; 39,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,12; 10,84</t>
+          <t>-57,14; 20,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,72; 1,82</t>
+          <t>-27,78; 27,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 15,44</t>
+          <t>-28,49; 24,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-48,93; -13,26</t>
+          <t>-52,86; -0,1</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,44</t>
+          <t>15,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>-3,89</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>9,13</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,8</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 17,4</t>
+          <t>8,53; 23,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 9,43</t>
+          <t>-3,32; 11,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 11,59</t>
+          <t>-6,63; 9,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 5,62</t>
+          <t>-6,5; 8,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 2,61</t>
+          <t>-11,22; 3,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 1,44</t>
+          <t>-14,67; 2,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 10,14</t>
+          <t>3,52; 14,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 4,17</t>
+          <t>-5,36; 5,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 4,1</t>
+          <t>-7,57; 4,31</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,08%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,46%</t>
+          <t>-8,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,02%</t>
+          <t>-13,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,52%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-4,0%</t>
+          <t>-4,03%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 46,87</t>
+          <t>17,65; 57,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 25,52</t>
+          <t>-6,72; 26,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 31,67</t>
+          <t>-13,83; 23,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 14,47</t>
+          <t>-13,56; 21,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,24; 6,89</t>
+          <t>-23,54; 8,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,86; 4,24</t>
+          <t>-30,69; 6,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 25,96</t>
+          <t>7,63; 34,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 10,82</t>
+          <t>-11,36; 13,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 10,86</t>
+          <t>-16,32; 10,45</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-9,91</t>
+          <t>-7,96</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>10,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,75</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,16</t>
+          <t>-6,88</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-9,04</t>
+          <t>-7,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 4,82</t>
+          <t>-11,63; 8,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 7,97</t>
+          <t>-9,43; 8,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,54; -1,35</t>
+          <t>-16,83; 1,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 15,23</t>
+          <t>0,19; 19,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 3,1</t>
+          <t>-12,61; 6,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 1,78</t>
+          <t>-16,64; 2,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 7,09</t>
+          <t>-2,89; 11,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 2,41</t>
+          <t>-8,49; 4,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-15,41; -2,19</t>
+          <t>-14,16; -0,3</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,88%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,89%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-20,87%</t>
+          <t>-15,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-14,06%</t>
+          <t>-7,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-19,96%</t>
+          <t>-16,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-8,96%</t>
+          <t>-4,04%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-20,39%</t>
+          <t>-15,99%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 11,89</t>
+          <t>-21,18; 17,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 19,63</t>
+          <t>-16,79; 19,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,2; -3,05</t>
+          <t>-30,81; 3,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 42,36</t>
+          <t>0,2; 54,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 7,74</t>
+          <t>-26,54; 16,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 5,47</t>
+          <t>-35,82; 7,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 17,88</t>
+          <t>-5,48; 26,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,58; 6,03</t>
+          <t>-16,83; 10,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,56; -5,43</t>
+          <t>-29,13; -0,77</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,74</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-12,98</t>
+          <t>-10,14</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-10,81</t>
+          <t>-8,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,55</t>
+          <t>9,42</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,9</t>
+          <t>-3,87</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 1,11</t>
+          <t>-11,41; 5,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-20,77; -5,34</t>
+          <t>-18,43; -1,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,65; -2,56</t>
+          <t>-17,99; -0,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 15,53</t>
+          <t>1,95; 16,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 8,42</t>
+          <t>-2,36; 12,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 4,47</t>
+          <t>-6,37; 6,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 5,24</t>
+          <t>-2,76; 8,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-11,11; -0,66</t>
+          <t>-8,82; 2,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -0,99</t>
+          <t>-9,13; 1,48</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-16,54%</t>
+          <t>-9,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-31,86%</t>
+          <t>-24,43%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-26,52%</t>
+          <t>-20,59%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>44,1%</t>
+          <t>54,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,94%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-19,7%</t>
+          <t>-11,43%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-20,16%</t>
+          <t>-12,98%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 4,23</t>
+          <t>-25,74; 14,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,24; -14,47</t>
+          <t>-41,06; -2,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-41,9; -7,07</t>
+          <t>-39,5; -1,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,28; 110,94</t>
+          <t>9,51; 118,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 57,07</t>
+          <t>-11,95; 90,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,6; 32,4</t>
+          <t>-30,93; 47,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 19,5</t>
+          <t>-8,65; 30,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-34,93; -1,4</t>
+          <t>-27,74; 8,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-34,51; -3,31</t>
+          <t>-28,67; 5,54</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-7,16</t>
+          <t>-6,12</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-7,44</t>
+          <t>-6,28</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-7,2</t>
+          <t>-6,06</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 3,46</t>
+          <t>0,34; 9,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 1,57</t>
+          <t>-5,42; 3,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,79; -2,53</t>
+          <t>-11,32; -1,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 7,36</t>
+          <t>2,24; 11,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 2,1</t>
+          <t>-5,17; 4,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,43; -2,87</t>
+          <t>-10,95; -2,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 4,23</t>
+          <t>2,59; 9,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 0,79</t>
+          <t>-3,44; 3,03</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,25; -3,95</t>
+          <t>-9,75; -2,74</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-1,76%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-6,66%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-17,08%</t>
+          <t>-13,47%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-5,49%</t>
+          <t>-1,04%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-22,13%</t>
+          <t>-17,83%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-6,17%</t>
+          <t>-1,17%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-18,99%</t>
+          <t>-14,98%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 8,48</t>
+          <t>0,73; 22,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 4,31</t>
+          <t>-11,16; 8,74</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-26,37; -6,01</t>
+          <t>-23,95; -3,28</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 23,57</t>
+          <t>6,15; 34,92</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 6,78</t>
+          <t>-13,78; 12,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-32,15; -8,82</t>
+          <t>-29,77; -6,12</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 11,56</t>
+          <t>6,24; 23,11</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 2,19</t>
+          <t>-8,15; 7,56</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,01; -10,7</t>
+          <t>-23,24; -6,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IMC_inf_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IMC_inf_R2-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-4,15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-14,14</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-3,57</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,03</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-16,93</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-4,15</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-13,38</t>
+          <t>-16,22</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-14,89</t>
+          <t>-15,05</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 16,85</t>
+          <t>-19,75; 19,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 19,77</t>
+          <t>-25,15; 14,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-35,11; 6,85</t>
+          <t>-34,32; 6,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 19,79</t>
+          <t>-23,09; 16,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,08; 15,73</t>
+          <t>-16,44; 19,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 8,08</t>
+          <t>-34,07; 5,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 12,12</t>
+          <t>-15,29; 12,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 11,11</t>
+          <t>-15,04; 11,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-29,49; -0,5</t>
+          <t>-28,53; 1,22</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-0,51%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-8,3%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-28,27%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-7,12%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>0,05%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-33,8%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,51%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-8,3%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-26,77%</t>
+          <t>-32,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-29,75%</t>
+          <t>-30,07%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 38,46</t>
+          <t>-33,47; 51,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 50,14</t>
+          <t>-42,12; 39,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-63,0; 15,37</t>
+          <t>-58,97; 18,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 51,45</t>
+          <t>-40,33; 39,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,02; 39,34</t>
+          <t>-30,21; 45,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,14; 20,66</t>
+          <t>-62,13; 14,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,78; 27,59</t>
+          <t>-28,14; 29,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 24,74</t>
+          <t>-26,09; 27,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-52,86; -0,1</t>
+          <t>-53,27; 3,18</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-3,89</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-5,33</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>15,75</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>3,92</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,6</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,89</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-1,31</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,53; 23,33</t>
+          <t>-5,46; 9,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 11,12</t>
+          <t>-11,19; 3,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 9,75</t>
+          <t>-14,01; 3,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 8,87</t>
+          <t>8,12; 23,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 3,48</t>
+          <t>-3,24; 11,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 2,57</t>
+          <t>-6,95; 10,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 14,7</t>
+          <t>3,61; 14,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 5,9</t>
+          <t>-4,68; 5,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 4,31</t>
+          <t>-7,28; 5,08</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-8,78%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-12,02%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>34,94%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>8,7%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,42%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-8,78%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,01%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-4,03%</t>
+          <t>-2,93%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,65; 57,25</t>
+          <t>-11,66; 23,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 26,89</t>
+          <t>-23,28; 8,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 23,18</t>
+          <t>-29,41; 8,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 21,33</t>
+          <t>16,36; 56,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 8,85</t>
+          <t>-6,72; 28,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 6,43</t>
+          <t>-14,25; 25,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,63; 34,85</t>
+          <t>8,14; 34,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 13,81</t>
+          <t>-10,02; 13,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 10,45</t>
+          <t>-15,67; 11,93</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>10,5</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-3,06</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-6,37</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-1,19</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-0,43</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-7,96</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>10,5</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-3,06</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,88</t>
+          <t>-8,6</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>-7,42</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 8,03</t>
+          <t>-0,03; 19,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 8,84</t>
+          <t>-12,86; 5,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,83; 1,36</t>
+          <t>-16,26; 3,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 19,88</t>
+          <t>-10,34; 9,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 6,28</t>
+          <t>-10,86; 7,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 2,5</t>
+          <t>-19,58; 0,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 11,17</t>
+          <t>-1,89; 11,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 4,36</t>
+          <t>-8,59; 4,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,16; -0,3</t>
+          <t>-13,83; -0,5</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>25,04%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-7,29%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-15,19%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-2,35%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-0,86%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-15,75%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>25,04%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-7,29%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-16,41%</t>
+          <t>-17,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-15,99%</t>
+          <t>-16,0%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,18; 17,54</t>
+          <t>0,03; 54,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,79; 19,8</t>
+          <t>-27,33; 15,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,81; 3,12</t>
+          <t>-35,0; 9,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,2; 54,55</t>
+          <t>-18,52; 20,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 16,9</t>
+          <t>-19,22; 17,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,82; 7,13</t>
+          <t>-35,76; 1,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 26,22</t>
+          <t>-3,73; 28,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,83; 10,14</t>
+          <t>-17,29; 11,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-29,13; -0,77</t>
+          <t>-27,81; -1,45</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>9,42</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4,07</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-3,77</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>-10,14</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-8,55</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>9,42</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>4,07</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-8,98</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-4,67</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 5,76</t>
+          <t>2,68; 17,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-18,43; -1,01</t>
+          <t>-2,35; 11,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,99; -0,83</t>
+          <t>-8,29; 7,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,95; 16,72</t>
+          <t>-11,93; 4,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 12,02</t>
+          <t>-19,07; -1,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 6,77</t>
+          <t>-17,61; 0,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 8,21</t>
+          <t>-2,7; 8,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 2,34</t>
+          <t>-9,28; 1,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 1,48</t>
+          <t>-10,62; 1,4</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>54,11%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>23,37%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-3,11%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-9,08%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>-24,43%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-20,59%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>54,11%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>23,37%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>-21,62%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-12,98%</t>
+          <t>-15,66%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 14,87</t>
+          <t>11,56; 116,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,06; -2,07</t>
+          <t>-11,93; 82,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,5; -1,82</t>
+          <t>-40,16; 46,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,51; 118,85</t>
+          <t>-26,6; 12,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 90,21</t>
+          <t>-42,44; -3,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 47,38</t>
+          <t>-39,69; 1,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 30,52</t>
+          <t>-8,69; 29,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,74; 8,29</t>
+          <t>-29,27; 7,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 5,54</t>
+          <t>-33,2; 5,19</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>6,91</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-6,91</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>5,06</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-0,69</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-6,12</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>6,91</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-6,28</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>-6,45</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,34; 9,57</t>
+          <t>2,48; 11,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 3,76</t>
+          <t>-4,92; 4,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,32; -1,38</t>
+          <t>-12,89; -1,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,24; 11,58</t>
+          <t>0,19; 10,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 4,18</t>
+          <t>-5,13; 4,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -2,03</t>
+          <t>-11,87; -1,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,04</t>
+          <t>2,21; 9,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 3,03</t>
+          <t>-3,78; 2,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -2,74</t>
+          <t>-10,41; -2,69</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>19,61%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-1,04%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-19,61%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>11,15%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-1,52%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-13,47%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>19,61%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-1,04%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-17,83%</t>
+          <t>-14,14%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-14,98%</t>
+          <t>-15,94%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,73; 22,19</t>
+          <t>6,62; 35,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 8,74</t>
+          <t>-13,21; 13,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,95; -3,28</t>
+          <t>-34,68; -5,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,15; 34,92</t>
+          <t>0,06; 22,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 12,59</t>
+          <t>-10,85; 10,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-29,77; -6,12</t>
+          <t>-25,02; -2,62</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,24; 23,11</t>
+          <t>5,25; 23,49</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 7,56</t>
+          <t>-9,02; 6,44</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-23,24; -6,81</t>
+          <t>-25,15; -7,02</t>
         </is>
       </c>
     </row>
